--- a/PSPSProject/testData/em_Valid_Invalid_Circuits_logfiles.xlsx
+++ b/PSPSProject/testData/em_Valid_Invalid_Circuits_logfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k8my\Documents\GitHub\gis-geomartcloud-pspsv4-automation-python\PSPSProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE12491-86BE-493B-BE6C-DE5F47E45C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B68BF6-1E12-4547-A491-353890B5C8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="20490" windowHeight="8985" tabRatio="765" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="285" windowWidth="20490" windowHeight="8985" tabRatio="765" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fail1" sheetId="1" r:id="rId1"/>
@@ -160,18 +160,12 @@
     <t>Temp gen name field should not be used for unflagged circuits</t>
   </si>
   <si>
-    <t>Temp gen name cannot exceed 13 characters or start with -</t>
-  </si>
-  <si>
     <t>123456_7890123450</t>
   </si>
   <si>
     <t>Temp1</t>
   </si>
   <si>
-    <t>Temp gen name field should not be used for unflagged circuits.</t>
-  </si>
-  <si>
     <t>Temp2</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>1234567890qwertyuiop1234567890qwertyuiopasdfghjklzs</t>
   </si>
   <si>
-    <t>Substation cannot be more than 50 characters</t>
-  </si>
-  <si>
     <t>GREENBRAE</t>
   </si>
   <si>
@@ -209,6 +200,15 @@
   </si>
   <si>
     <t>Comments cannot be more than 5000 characters</t>
+  </si>
+  <si>
+    <t>Tempgenname cannot exceed 15 characters or start with hyphen (-)</t>
+  </si>
+  <si>
+    <t>Substationname cannot be more than 50 characters</t>
+  </si>
+  <si>
+    <t>Tempgenname field should not be used for unflagged circuits</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1637,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1892,7 +1892,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1981,10 +1981,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2134,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>42271105</v>
@@ -2155,10 +2155,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2511,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -2520,7 +2520,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,62 +2608,62 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/PSPSProject/testData/em_Valid_Invalid_Circuits_logfiles.xlsx
+++ b/PSPSProject/testData/em_Valid_Invalid_Circuits_logfiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k8my\Documents\GitHub\gis-geomartcloud-pspsv4-automation-python\PSPSProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B68BF6-1E12-4547-A491-353890B5C8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7E0861-D151-49D5-A89C-73726B2872E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="20490" windowHeight="8985" tabRatio="765" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="765" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fail1" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,17 @@
     <sheet name="Failed22" sheetId="53" r:id="rId22"/>
     <sheet name="Failed23" sheetId="52" r:id="rId23"/>
     <sheet name="Failed24" sheetId="51" r:id="rId24"/>
-    <sheet name="Error_Message" sheetId="29" r:id="rId25"/>
+    <sheet name="Failed25" sheetId="57" r:id="rId25"/>
+    <sheet name="Failed26" sheetId="58" r:id="rId26"/>
+    <sheet name="Failed27" sheetId="59" r:id="rId27"/>
+    <sheet name="Error_Message" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="66">
   <si>
     <t>FIA</t>
   </si>
@@ -209,13 +212,46 @@
   </si>
   <si>
     <t>Tempgenname field should not be used for unflagged circuits</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>Accepted values are Y or blank</t>
+  </si>
+  <si>
+    <t>Circuit name</t>
+  </si>
+  <si>
+    <t>Circuit ID</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>ALTO 2105</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ALTO 60KV</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +385,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -692,10 +734,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1052,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,11 +1108,11 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,19 +1138,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1126,10 +1172,10 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1140,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6159DB-13CB-47A7-9864-E380A564C365}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1198,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,19 +1224,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1203,10 +1252,10 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1217,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEEE00-65DF-42B8-A665-C74B94DB0CA7}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1278,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,19 +1304,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1292,10 +1344,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1306,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7636061-3F62-44DE-A9FF-02EA0A0F2E5F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1370,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,19 +1396,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1369,13 +1424,13 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1.23E+16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1386,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6C7644-B626-4EEF-9858-800E9BF2B33B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1453,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,19 +1479,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1461,10 +1519,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1230000000000000</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1475,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C4C982-285F-480D-8A1E-81F3CF8CAC9D}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1545,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,19 +1571,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1550,10 +1611,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1564,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC88E527-FBBA-4613-99CE-0FC8C6636122}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1637,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1602,19 +1663,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1636,13 +1700,13 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1653,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163C0BE-8992-4571-B383-28856CA78E1B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1729,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1691,19 +1755,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1725,13 +1792,13 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1742,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B10BB0-51F1-4908-8EB9-BE7A24CC0269}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1821,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1780,19 +1847,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1805,7 +1875,7 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1816,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4337894-9A9A-4B1E-B1D0-5616F66D3705}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1898,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1854,19 +1924,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1891,10 +1964,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1905,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131D6266-FC45-4F57-B2D6-F8989CAA248B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1990,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1943,19 +2016,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -1980,10 +2056,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1994,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79779A-C9C1-4E98-9ABC-E7D322A5F893}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,11 +2083,11 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2036,20 +2112,23 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -2065,24 +2144,25 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA99DBA-56E6-4DDD-85C0-81C51A730AE8}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2171,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,19 +2197,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -2154,10 +2237,10 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2168,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5F6E36-5C83-4360-9FAE-2E7D40A9EF91}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2263,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2206,19 +2289,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2240,10 +2326,10 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2254,21 +2340,21 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FC6545-5CF0-4079-A67C-E29769600F8F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2294,19 +2380,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2328,10 +2417,10 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2342,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101E23EF-BCAB-4F7B-BD7A-E8937E31A2E5}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,11 +2445,11 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2386,19 +2475,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2420,10 +2512,10 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2434,20 +2526,20 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49B8E73-65E4-442D-AFC9-E15F8BCD9C46}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2473,19 +2565,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -2510,16 +2605,16 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2529,11 +2624,266 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137344CE-04C2-4ED7-963A-691E8CC174FB}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>83692105</v>
+      </c>
+      <c r="D2">
+        <v>11377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B760C93B-0344-41D6-98D3-24D491160009}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>83692105</v>
+      </c>
+      <c r="D2">
+        <v>11377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B655412F-1506-4FEF-8905-B04616B39200}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>83692105</v>
+      </c>
+      <c r="D2">
+        <v>11377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,6 +3016,21 @@
         <v>51</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2674,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8710291-E924-43CC-A75D-177D5F24DC2F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +3051,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2712,19 +3077,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -2746,10 +3114,10 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2760,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B33407B-BB55-4EB5-87DA-A0D5EF8C3F49}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +3140,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2798,19 +3166,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -2832,10 +3203,10 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2846,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DADE30B-D463-4951-9D6F-5273055E846C}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,7 +3229,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2884,19 +3255,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>191</v>
       </c>
@@ -2915,10 +3289,10 @@
       <c r="F2">
         <v>3287</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2929,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507642A2-B9C5-479C-9DEA-2B14B8BC24BB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +3315,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2967,19 +3341,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -3004,10 +3381,10 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3018,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D978A0E-FF67-48D7-8B43-868E853308AD}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3407,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3056,19 +3433,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -3087,10 +3467,10 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3101,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B86AE2-4BAE-45FD-BE94-FEA22767D4E1}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3493,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3139,19 +3519,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -3176,10 +3559,10 @@
       <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3190,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FDA74-6620-46E2-ABDC-9CF866C346D3}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3585,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3228,19 +3611,22 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190</v>
       </c>
@@ -3265,10 +3651,10 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
